--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex06_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex06_end.xlsx
@@ -996,11 +996,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  That's not a form of "information."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alty"]   No, I'm talking about "That" part of the ocean.
+    <t xml:space="preserve">[name="Kal'tsit"]  That's not a form of 'information.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alty"]   No, I'm talking about 'That' part of the ocean.
 </t>
   </si>
   <si>
@@ -1012,7 +1012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]   "They can't sing anymore. They can't talk anymore. They're drifting farther and farther away from us. They're becoming hungry."
+    <t xml:space="preserve">[name="Alty"]   'They can't sing anymore. They can't talk anymore. They're drifting farther and farther away from us. They're becoming hungry.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex06_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex06_end.xlsx
@@ -696,7 +696,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alty"]  So this is the legendary Rhodes Island. It certainly has an almost mystical air to it…
+    <t xml:space="preserve">[name="Alty"]  So this is the legendary Rhodes Island. It certainly has an almost mystical air to it...
 </t>
   </si>
   <si>
